--- a/versions/Stock_Original.xlsx
+++ b/versions/Stock_Original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Desktop/CUARTO_ING_SALUD/prac_lab/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B79D17F-70A7-1149-8FFC-88345C0A4C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
-  </si>
-  <si>
-    <t>1 de 4</t>
   </si>
   <si>
     <t>Q32853</t>
@@ -762,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -788,10 +785,10 @@
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1009,7 +1006,7 @@
         <v>64933</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1054,7 +1051,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1156,7 +1153,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1275,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1521,7 +1518,7 @@
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1566,7 +1563,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1668,7 +1665,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1759,7 +1756,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2033,8 +2030,8 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2070,7 +2067,7 @@
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2155,7 +2152,7 @@
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>

--- a/versions/Stock_Original.xlsx
+++ b/versions/Stock_Original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592602F7-B17F-E140-B7C2-6379D0922792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>A49669</t>
+  </si>
+  <si>
+    <t>A34541</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,20 +1815,15 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>49669</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>49669</v>
-      </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1837,11 +1838,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>49669</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+      <c r="B4">
+        <v>78310</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1854,9 +1852,6 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>49669</v>
-      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1871,9 +1866,6 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>49669</v>
-      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1888,9 +1880,6 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>49669</v>
-      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1905,9 +1894,6 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>49669</v>
-      </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1922,20 +1908,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>34545</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>34545</v>
-      </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1950,9 +1931,6 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>34545</v>
-      </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -1967,9 +1945,6 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>34545</v>
-      </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1984,9 +1959,6 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>34545</v>
-      </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2001,9 +1973,6 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>34545</v>
-      </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +1988,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>34538</v>
+        <v>64935</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
